--- a/docs/data_catalog.xlsx
+++ b/docs/data_catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aalves/Documents/repos/tcc-fia-trading-advisor/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF64DAE1-9633-8B4F-8D21-2A902C5B8816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE5433A-1BEB-1E4D-8E2C-03DAF4E5B896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{550C2880-A970-DB4C-A8D0-C28829EAD042}"/>
   </bookViews>
